--- a/myapp/files/9_MethodComparePercent/Scenario 353.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 353.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1026</v>
+        <v>9462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.870915989711986</v>
+        <v>1.59425246879986</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51515151515152</v>
+        <v>1.73010380622837</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1862</v>
+        <v>15973</v>
       </c>
       <c r="F3" t="n">
-        <v>1.58055124058842</v>
+        <v>2.6912909199049</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.03030303030303</v>
+        <v>2.42214532871972</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14293</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.40822770413828</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -669,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.42214532871972</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2384</v>
+        <v>13765</v>
       </c>
       <c r="F5" t="n">
-        <v>2.02364884938926</v>
+        <v>2.31926497918306</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.54545454545454</v>
+        <v>3.11418685121107</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3648</v>
+        <v>16754</v>
       </c>
       <c r="F6" t="n">
-        <v>3.09659018564262</v>
+        <v>2.82288161723451</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.54545454545454</v>
+        <v>2.07612456747405</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>3410</v>
+        <v>14303</v>
       </c>
       <c r="F7" t="n">
-        <v>2.89456483910124</v>
+        <v>2.40991260423213</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.51515151515152</v>
+        <v>2.7681660899654</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5022</v>
+        <v>27706</v>
       </c>
       <c r="F8" t="n">
-        <v>4.26290458122183</v>
+        <v>4.66818420001786</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>1.51515151515152</v>
+        <v>4.1522491349481</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>6200</v>
+        <v>33866</v>
       </c>
       <c r="F9" t="n">
-        <v>5.26284516200226</v>
+        <v>5.7060826578288</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -859,10 +859,10 @@
         <v>5.33333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>4.54545454545454</v>
+        <v>7.61245674740484</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>10819</v>
+        <v>38925</v>
       </c>
       <c r="F10" t="n">
-        <v>9.18366480769394</v>
+        <v>6.55847361530698</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,16 +897,16 @@
         <v>5.33333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>7.57575757575758</v>
+        <v>7.26643598615917</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>9.33333333333333</v>
+        <v>10.6666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>4148</v>
+        <v>23981</v>
       </c>
       <c r="F11" t="n">
-        <v>3.52101318257828</v>
+        <v>4.04055891505913</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>4.54545454545454</v>
+        <v>4.49826989619377</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.66666666666667</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>11820</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.99155191092944</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -973,10 +973,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.3840830449827</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3633</v>
+        <v>31471</v>
       </c>
       <c r="F13" t="n">
-        <v>3.08385749573455</v>
+        <v>5.30254908535198</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -1011,10 +1011,10 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>4.54545454545454</v>
+        <v>5.19031141868512</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>20182</v>
+        <v>71598</v>
       </c>
       <c r="F14" t="n">
-        <v>17.1314098483112</v>
+        <v>12.0635476919396</v>
       </c>
       <c r="G14" t="n">
         <v>17</v>
@@ -1049,10 +1049,10 @@
         <v>22.6666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>13.6363636363636</v>
+        <v>10.7266435986159</v>
       </c>
       <c r="K14" t="n">
         <v>15</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>9993</v>
+        <v>68895</v>
       </c>
       <c r="F15" t="n">
-        <v>8.48251801675622</v>
+        <v>11.6081191965722</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1087,10 +1087,10 @@
         <v>13.3333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>9.09090909090909</v>
+        <v>9.68858131487889</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>252</v>
+        <v>39595</v>
       </c>
       <c r="F16" t="n">
-        <v>0.213909190455576</v>
+        <v>6.67136192159486</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51515151515152</v>
+        <v>4.84429065743945</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9617</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.62036842025452</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.51515151515152</v>
+        <v>1.3840830449827</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1914</v>
+        <v>19393</v>
       </c>
       <c r="F18" t="n">
-        <v>1.62469123226973</v>
+        <v>3.26752675200124</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>4.54545454545454</v>
+        <v>4.1522491349481</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1437</v>
+        <v>27931</v>
       </c>
       <c r="F19" t="n">
-        <v>1.2197916931931</v>
+        <v>4.70609445212946</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1239,10 +1239,10 @@
         <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J19" t="n">
-        <v>3.03030303030303</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3214</v>
+        <v>30141</v>
       </c>
       <c r="F20" t="n">
-        <v>2.72819102430246</v>
+        <v>5.07845737287008</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>4.54545454545454</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1161</v>
+        <v>13652</v>
       </c>
       <c r="F21" t="n">
-        <v>0.985510198884616</v>
+        <v>2.30022560812257</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>3.03030303030303</v>
+        <v>3.80622837370242</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>3294</v>
+        <v>6551</v>
       </c>
       <c r="F22" t="n">
-        <v>2.79609870381217</v>
+        <v>1.10377805148044</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.51515151515152</v>
+        <v>1.03806228373702</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>6006</v>
+        <v>11380</v>
       </c>
       <c r="F23" t="n">
-        <v>5.09816903919122</v>
+        <v>1.91741630680009</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.03030303030303</v>
+        <v>1.3840830449827</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>7877</v>
+        <v>13547</v>
       </c>
       <c r="F24" t="n">
-        <v>6.68635989372448</v>
+        <v>2.28253415713715</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>4.54545454545454</v>
+        <v>2.07612456747405</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>8007</v>
+        <v>13234</v>
       </c>
       <c r="F25" t="n">
-        <v>6.79670987292775</v>
+        <v>2.22979678419968</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>4.54545454545454</v>
+        <v>2.07612456747405</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>12318</v>
+        <v>15654</v>
       </c>
       <c r="F26" t="n">
-        <v>10.4560849525071</v>
+        <v>2.63754260691112</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>7.57575757575758</v>
+        <v>2.42214532871972</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
